--- a/彭渔宴_新.xlsx
+++ b/彭渔宴_新.xlsx
@@ -631,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE109"/>
+  <dimension ref="A1:BE122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L46" activePane="bottomRight" state="frozen"/>
@@ -21769,6 +21769,2737 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM110" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA110" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM111" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA111" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV112" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM113" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA113" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM115" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA115" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR117" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV118" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC119" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM119" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR119" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA119" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC120" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS120" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV120" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="AP121" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AQ121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR121" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA121" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1,604</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>134.13</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>5356.63</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>4732.63</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV122" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
